--- a/medicine/Mort/Champ_funéraire/Champ_funéraire.xlsx
+++ b/medicine/Mort/Champ_funéraire/Champ_funéraire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Champ_fun%C3%A9raire</t>
+          <t>Champ_funéraire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un champ funéraire est un groupement de sépultures caractérisé par l'absence initiale de structures hors sol ou de monuments comme les stèles funéraires. Il se distingue des nécropoles antiques dont les sépultures monumentales sont séparées des lieux de culte, et du cimetière médiéval qui voit l'extension de la consécration des lieux de culte à leur environnement funéraire sacralisé[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un champ funéraire est un groupement de sépultures caractérisé par l'absence initiale de structures hors sol ou de monuments comme les stèles funéraires. Il se distingue des nécropoles antiques dont les sépultures monumentales sont séparées des lieux de culte, et du cimetière médiéval qui voit l'extension de la consécration des lieux de culte à leur environnement funéraire sacralisé.
 Beaucoup de champs funéraires correspondent à la période préhistorique, typiquement de l'âge du bronze en Europe et l'âge du fer et regroupent des tombes à crémation ou à inhumation, ils peuvent également désigner des « cimetières » mérovingiens, gallo-romains, etc.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Champ_fun%C3%A9raire</t>
+          <t>Champ_funéraire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Types</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les espaces funéraires peuvent être classés selon le type de rite funéraire :
 champ de tumulus (kourgane)
-« cimetières[2] » par rangées (alignement mégalithique)
+« cimetières » par rangées (alignement mégalithique)
 ossuaires
 tombes à fosses
 civilisation des champs d'urnes</t>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Champ_fun%C3%A9raire</t>
+          <t>Champ_funéraire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Espaces funéraires celtiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Civilisation de Hallstatt
 Kinding-Ilbling, Arrondissement d'Eichstätt, Allemagne
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Champ_fun%C3%A9raire</t>
+          <t>Champ_funéraire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,8 +598,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Scandinavie
-Âge du bronze danois
+          <t>Scandinavie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Âge du bronze danois
 Site funéraire de l'âge du bronze de Sammallahdenmäki, Finlande
 Ekornavallen, Falköping, Suède
 Gettlinge, Öland, Suède
@@ -599,10 +620,7 @@
 Li, Halland, Suède
 Valsgärde, Comté d'Uppsala, Suède
 Âge des Vikings
-Järvsta, Gävle, Suède
-Basses-terres d'Europe du Nord
-Culture de Jastorf
-Mühlen Eichsen, Schwerin, Allemagne</t>
+Järvsta, Gävle, Suède</t>
         </is>
       </c>
     </row>
@@ -612,7 +630,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Champ_fun%C3%A9raire</t>
+          <t>Champ_funéraire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -627,12 +645,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Espaces funéraires d'Europe du Nord</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Basses-terres d'Europe du Nord</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Culture de Jastorf
+Mühlen Eichsen, Schwerin, Allemagne</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Champ_funéraire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Champ_fun%C3%A9raire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Espaces funéraires alémaniques et mérovingiens</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espaces funéraires alémaniques et mérovingiens apparaissent au Ve siècle. Avant le milieu du Ve siècle, les espaces funéraires sont de petite taille, comprenant souvent moins de cinq tombes et correspondant probablement à une ferme individuelle ou une famille. La rareté des tombes au cours de cette période peut s'expliquer par la pratique de crémations. Au milieu du Ve siècle, le rite funéraire évolue, les espaces funéraires s'agrandissent, les tombes sont alignées en rangées sur un terrain élevé, en dehors des habitats. La disposition des tombes est souvent d'est en ouest - la tête des dépouilles tournée vers l'est[3]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espaces funéraires alémaniques et mérovingiens apparaissent au Ve siècle. Avant le milieu du Ve siècle, les espaces funéraires sont de petite taille, comprenant souvent moins de cinq tombes et correspondant probablement à une ferme individuelle ou une famille. La rareté des tombes au cours de cette période peut s'expliquer par la pratique de crémations. Au milieu du Ve siècle, le rite funéraire évolue, les espaces funéraires s'agrandissent, les tombes sont alignées en rangées sur un terrain élevé, en dehors des habitats. La disposition des tombes est souvent d'est en ouest - la tête des dépouilles tournée vers l'est
 La christianisation des « barbares » au VIIe siècle voit la disparition de ces champs funéraires, les morts sont désormais inhumés et non plus incinérés dans les cimetières près des églises.
 </t>
         </is>
